--- a/output/plant_protection.xlsx
+++ b/output/plant_protection.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="275">
   <si>
     <t>Location</t>
   </si>
@@ -71,9 +71,6 @@
     <t>2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2018</t>
-  </si>
-  <si>
     <t>HN_NF</t>
   </si>
   <si>
@@ -236,6 +233,54 @@
     <t>2018-07-29</t>
   </si>
   <si>
+    <t>2015-03-21</t>
+  </si>
+  <si>
+    <t>2015-03-26</t>
+  </si>
+  <si>
+    <t>2015-06-06</t>
+  </si>
+  <si>
+    <t>2015-05-06</t>
+  </si>
+  <si>
+    <t>2015-06-18</t>
+  </si>
+  <si>
+    <t>2016-04-07</t>
+  </si>
+  <si>
+    <t>2016-06-02</t>
+  </si>
+  <si>
+    <t>2016-04-23</t>
+  </si>
+  <si>
+    <t>2016-04-16</t>
+  </si>
+  <si>
+    <t>2016-06-10</t>
+  </si>
+  <si>
+    <t>2017-04-22</t>
+  </si>
+  <si>
+    <t>2017-04-13</t>
+  </si>
+  <si>
+    <t>2017-06-03</t>
+  </si>
+  <si>
+    <t>2017-05-05</t>
+  </si>
+  <si>
+    <t>2017-05-11</t>
+  </si>
+  <si>
+    <t>2017-06-21</t>
+  </si>
+  <si>
     <t>2018-04-07</t>
   </si>
   <si>
@@ -248,54 +293,6 @@
     <t>2018-04-29</t>
   </si>
   <si>
-    <t>2015-03-21</t>
-  </si>
-  <si>
-    <t>2015-03-26</t>
-  </si>
-  <si>
-    <t>2015-06-06</t>
-  </si>
-  <si>
-    <t>2015-05-06</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2016-04-07</t>
-  </si>
-  <si>
-    <t>2016-06-02</t>
-  </si>
-  <si>
-    <t>2016-04-23</t>
-  </si>
-  <si>
-    <t>2016-04-16</t>
-  </si>
-  <si>
-    <t>2016-06-10</t>
-  </si>
-  <si>
-    <t>2017-04-22</t>
-  </si>
-  <si>
-    <t>2017-04-13</t>
-  </si>
-  <si>
-    <t>2017-06-03</t>
-  </si>
-  <si>
-    <t>2017-05-05</t>
-  </si>
-  <si>
-    <t>2017-05-11</t>
-  </si>
-  <si>
-    <t>2017-06-21</t>
-  </si>
-  <si>
     <t>2019-04-10</t>
   </si>
   <si>
@@ -500,6 +497,66 @@
     <t>1,25l/ha</t>
   </si>
   <si>
+    <t>1,2l/ha</t>
+  </si>
+  <si>
+    <t>70g+1l+20g/ha</t>
+  </si>
+  <si>
+    <t>0,2l/ha</t>
+  </si>
+  <si>
+    <t>1,2 l/ha</t>
+  </si>
+  <si>
+    <t>0,5 l/ha+0,5 l/ha</t>
+  </si>
+  <si>
+    <t>2l/ha</t>
+  </si>
+  <si>
+    <t>1,1l/ha+1,1l/ha</t>
+  </si>
+  <si>
+    <t>1l/ha</t>
+  </si>
+  <si>
+    <t>1,2 l</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,2l</t>
+  </si>
+  <si>
+    <t>0,5l;0,5l</t>
+  </si>
+  <si>
+    <t>2l</t>
+  </si>
+  <si>
+    <t>1,1l;1,1l</t>
+  </si>
+  <si>
+    <t>1l</t>
+  </si>
+  <si>
+    <t>0,07 kg</t>
+  </si>
+  <si>
+    <t>0,2 l</t>
+  </si>
+  <si>
+    <t>1,5 l</t>
+  </si>
+  <si>
+    <t>1,6 l</t>
+  </si>
+  <si>
+    <t>2 l</t>
+  </si>
+  <si>
+    <t>1 l</t>
+  </si>
+  <si>
     <t>1,2 l/ha; 70g/ha</t>
   </si>
   <si>
@@ -512,12 +569,6 @@
     <t>2,1 l; 1,5L/ha</t>
   </si>
   <si>
-    <t>2 l</t>
-  </si>
-  <si>
-    <t>1l/ha</t>
-  </si>
-  <si>
     <t>0,3l/ha</t>
   </si>
   <si>
@@ -530,60 +581,6 @@
     <t>0,75 l/ha</t>
   </si>
   <si>
-    <t>1,2l/ha</t>
-  </si>
-  <si>
-    <t>70g+1l+20g/ha</t>
-  </si>
-  <si>
-    <t>0,2l/ha</t>
-  </si>
-  <si>
-    <t>1,2 l/ha</t>
-  </si>
-  <si>
-    <t>0,5 l/ha+0,5 l/ha</t>
-  </si>
-  <si>
-    <t>2l/ha</t>
-  </si>
-  <si>
-    <t>1,1l/ha+1,1l/ha</t>
-  </si>
-  <si>
-    <t>1,2 l</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,2l</t>
-  </si>
-  <si>
-    <t>0,5l;0,5l</t>
-  </si>
-  <si>
-    <t>2l</t>
-  </si>
-  <si>
-    <t>1,1l;1,1l</t>
-  </si>
-  <si>
-    <t>1l</t>
-  </si>
-  <si>
-    <t>0,07 kg</t>
-  </si>
-  <si>
-    <t>0,2 l</t>
-  </si>
-  <si>
-    <t>1,5 l</t>
-  </si>
-  <si>
-    <t>1,6 l</t>
-  </si>
-  <si>
-    <t>1 l</t>
-  </si>
-  <si>
     <t>0.9 l/ha; 70g/ha;1l</t>
   </si>
   <si>
@@ -734,6 +731,60 @@
     <t>Input Classic</t>
   </si>
   <si>
+    <t>Axial</t>
+  </si>
+  <si>
+    <t>Biathlon4D+Dash+Dirigent SX</t>
+  </si>
+  <si>
+    <t>Sumicidien</t>
+  </si>
+  <si>
+    <t>Stabilon 720</t>
+  </si>
+  <si>
+    <t>Stabilon720+Medox Top</t>
+  </si>
+  <si>
+    <t>Capalo</t>
+  </si>
+  <si>
+    <t>Adexa+Diamant</t>
+  </si>
+  <si>
+    <t>Prosaro</t>
+  </si>
+  <si>
+    <t>Sumizidin, Karate Zeon</t>
+  </si>
+  <si>
+    <t>CCC; Medax Top</t>
+  </si>
+  <si>
+    <t>Diamant;Adexar</t>
+  </si>
+  <si>
+    <t>CCC ;Medax Top</t>
+  </si>
+  <si>
+    <t>Axial 50</t>
+  </si>
+  <si>
+    <t>Biathlon 4 D</t>
+  </si>
+  <si>
+    <t>Sumizidin;Karate Zeon</t>
+  </si>
+  <si>
+    <t>Medax Top</t>
+  </si>
+  <si>
+    <t>Capalo/Diamant</t>
+  </si>
+  <si>
+    <t>Adexar</t>
+  </si>
+  <si>
     <t>Axial 50;Biathlon 4D,Dash</t>
   </si>
   <si>
@@ -749,61 +800,7 @@
     <t>Bullock</t>
   </si>
   <si>
-    <t>Capalo</t>
-  </si>
-  <si>
-    <t>Adexar</t>
-  </si>
-  <si>
-    <t>Prosaro</t>
-  </si>
-  <si>
     <t>Bulldock</t>
-  </si>
-  <si>
-    <t>Axial</t>
-  </si>
-  <si>
-    <t>Biathlon4D+Dash+Dirigent SX</t>
-  </si>
-  <si>
-    <t>Sumicidien</t>
-  </si>
-  <si>
-    <t>Stabilon 720</t>
-  </si>
-  <si>
-    <t>Stabilon720+Medox Top</t>
-  </si>
-  <si>
-    <t>Adexa+Diamant</t>
-  </si>
-  <si>
-    <t>Sumizidin, Karate Zeon</t>
-  </si>
-  <si>
-    <t>CCC; Medax Top</t>
-  </si>
-  <si>
-    <t>Diamant;Adexar</t>
-  </si>
-  <si>
-    <t>CCC ;Medax Top</t>
-  </si>
-  <si>
-    <t>Axial 50</t>
-  </si>
-  <si>
-    <t>Biathlon 4 D</t>
-  </si>
-  <si>
-    <t>Sumizidin;Karate Zeon</t>
-  </si>
-  <si>
-    <t>Medax Top</t>
-  </si>
-  <si>
-    <t>Capalo/Diamant</t>
   </si>
   <si>
     <t>Axial 50;Biathlon 4D;Dash</t>
@@ -921,19 +918,19 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
@@ -944,19 +941,19 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
@@ -967,19 +964,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5">
@@ -990,19 +987,19 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
@@ -1013,19 +1010,19 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7">
@@ -1036,19 +1033,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8">
@@ -1059,19 +1056,19 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
@@ -1082,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10">
@@ -1105,19 +1102,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11">
@@ -1128,19 +1125,19 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12">
@@ -1151,19 +1148,19 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13">
@@ -1174,19 +1171,19 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14">
@@ -1197,19 +1194,19 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15">
@@ -1220,19 +1217,19 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16">
@@ -1243,19 +1240,19 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
@@ -1266,19 +1263,19 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18">
@@ -1289,19 +1286,19 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
@@ -1312,19 +1309,19 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
@@ -1335,19 +1332,19 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
@@ -1358,19 +1355,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
@@ -1381,19 +1378,19 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -1404,19 +1401,19 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
@@ -1427,19 +1424,19 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
@@ -1450,19 +1447,19 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
@@ -1473,19 +1470,19 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
@@ -1496,19 +1493,19 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
@@ -1519,19 +1516,19 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29">
@@ -1542,19 +1539,19 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
@@ -1565,19 +1562,19 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31">
@@ -1588,19 +1585,19 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32">
@@ -1611,19 +1608,19 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33">
@@ -1634,19 +1631,19 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34">
@@ -1657,19 +1654,19 @@
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35">
@@ -1680,19 +1677,19 @@
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -1703,19 +1700,19 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37">
@@ -1726,19 +1723,19 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38">
@@ -1749,19 +1746,19 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39">
@@ -1772,19 +1769,19 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40">
@@ -1795,19 +1792,19 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41">
@@ -1818,19 +1815,19 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42">
@@ -1841,19 +1838,19 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43">
@@ -1864,19 +1861,19 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44">
@@ -1887,19 +1884,19 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45">
@@ -1910,19 +1907,19 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46">
@@ -1933,19 +1930,19 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
@@ -1956,19 +1953,19 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48">
@@ -1979,19 +1976,19 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49">
@@ -2002,19 +1999,19 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50">
@@ -2025,19 +2022,19 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51">
@@ -2048,19 +2045,19 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52">
@@ -2071,19 +2068,19 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53">
@@ -2094,19 +2091,19 @@
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54">
@@ -2117,19 +2114,19 @@
         <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55">
@@ -2140,19 +2137,19 @@
         <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56">
@@ -2163,19 +2160,19 @@
         <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57">
@@ -2186,19 +2183,19 @@
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58">
@@ -2209,19 +2206,19 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59">
@@ -2232,19 +2229,19 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60">
@@ -2255,19 +2252,19 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61">
@@ -2278,19 +2275,19 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62">
@@ -2301,19 +2298,19 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63">
@@ -2324,19 +2321,19 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G63" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64">
@@ -2347,19 +2344,19 @@
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65">
@@ -2370,19 +2367,19 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66">
@@ -2393,19 +2390,19 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67">
@@ -2416,19 +2413,19 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68">
@@ -2439,19 +2436,19 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69">
@@ -2462,19 +2459,19 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70">
@@ -2485,19 +2482,19 @@
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71">
@@ -2508,19 +2505,19 @@
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72">
@@ -2531,19 +2528,19 @@
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73">
@@ -2554,19 +2551,19 @@
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74">
@@ -2577,19 +2574,19 @@
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75">
@@ -2600,19 +2597,19 @@
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G75" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76">
@@ -2623,19 +2620,19 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G76" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77">
@@ -2646,19 +2643,19 @@
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78">
@@ -2669,19 +2666,19 @@
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79">
@@ -2692,19 +2689,19 @@
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80">
@@ -2715,19 +2712,19 @@
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81">
@@ -2738,19 +2735,19 @@
         <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82">
@@ -2761,19 +2758,19 @@
         <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83">
@@ -2784,19 +2781,19 @@
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84">
@@ -2807,19 +2804,19 @@
         <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85">
@@ -2830,19 +2827,19 @@
         <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86">
@@ -2853,19 +2850,19 @@
         <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87">
@@ -2876,19 +2873,19 @@
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88">
@@ -2899,19 +2896,19 @@
         <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89">
@@ -2922,19 +2919,19 @@
         <v>18</v>
       </c>
       <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" t="s">
         <v>24</v>
       </c>
-      <c r="D89" t="s">
-        <v>25</v>
-      </c>
       <c r="E89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90">
@@ -2945,19 +2942,19 @@
         <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G90" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91">
@@ -2968,19 +2965,19 @@
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92">
@@ -2988,22 +2985,22 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
         <v>19</v>
       </c>
-      <c r="C92" t="s">
-        <v>20</v>
-      </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93">
@@ -3011,22 +3008,22 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
         <v>19</v>
       </c>
-      <c r="C93" t="s">
-        <v>20</v>
-      </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94">
@@ -3034,22 +3031,22 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
         <v>19</v>
       </c>
-      <c r="C94" t="s">
-        <v>20</v>
-      </c>
       <c r="D94" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G94" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95">
@@ -3057,19 +3054,19 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
         <v>19</v>
       </c>
-      <c r="C95" t="s">
-        <v>20</v>
-      </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E95" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G95" t="s">
         <v>242</v>
@@ -3080,19 +3077,19 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
         <v>19</v>
       </c>
-      <c r="C96" t="s">
-        <v>20</v>
-      </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E96" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F96" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="G96" t="s">
         <v>243</v>
@@ -3103,22 +3100,22 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E97" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98">
@@ -3126,22 +3123,22 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G98" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99">
@@ -3149,22 +3146,22 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G99" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100">
@@ -3172,22 +3169,22 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F100" t="s">
         <v>166</v>
       </c>
       <c r="G100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101">
@@ -3195,22 +3192,22 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E101" t="s">
         <v>75</v>
       </c>
       <c r="F101" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102">
@@ -3218,22 +3215,22 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E102" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F102" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103">
@@ -3241,19 +3238,19 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E103" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="F103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G103" t="s">
         <v>242</v>
@@ -3264,19 +3261,19 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E104" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F104" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="G104" t="s">
         <v>243</v>
@@ -3287,22 +3284,22 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106">
@@ -3310,22 +3307,22 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F106" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G106" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107">
@@ -3333,22 +3330,22 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E107" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F107" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G107" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108">
@@ -3356,22 +3353,22 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
         <v>19</v>
       </c>
-      <c r="C108" t="s">
-        <v>22</v>
-      </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E108" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F108" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G108" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109">
@@ -3379,22 +3376,22 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
         <v>19</v>
       </c>
-      <c r="C109" t="s">
-        <v>22</v>
-      </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E109" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F109" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="G109" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110">
@@ -3402,22 +3399,22 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
         <v>19</v>
       </c>
-      <c r="C110" t="s">
-        <v>24</v>
-      </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E110" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F110" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G110" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111">
@@ -3425,22 +3422,22 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" t="s">
         <v>24</v>
       </c>
-      <c r="D111" t="s">
-        <v>27</v>
-      </c>
       <c r="E111" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F111" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G111" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112">
@@ -3448,22 +3445,22 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E112" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F112" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G112" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113">
@@ -3471,22 +3468,22 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E113" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F113" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G113" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114">
@@ -3494,22 +3491,22 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E114" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G114" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115">
@@ -3517,22 +3514,22 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E115" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F115" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G115" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116">
@@ -3540,22 +3537,22 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E116" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F116" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G116" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117">
@@ -3563,22 +3560,22 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" t="s">
         <v>24</v>
       </c>
-      <c r="D117" t="s">
-        <v>29</v>
-      </c>
       <c r="E117" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F117" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G117" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118">
@@ -3586,22 +3583,22 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E118" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F118" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G118" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119">
@@ -3609,22 +3606,22 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E119" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F119" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G119" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120">
@@ -3632,22 +3629,22 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E120" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F120" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121">
@@ -3655,22 +3652,22 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F121" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122">
@@ -3678,22 +3675,22 @@
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F122" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G122" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123">
@@ -3701,22 +3698,22 @@
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E123" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F123" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G123" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124">
@@ -3724,22 +3721,22 @@
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E124" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F124" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G124" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125">
@@ -3747,22 +3744,22 @@
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E125" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F125" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G125" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126">
@@ -3770,22 +3767,22 @@
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E126" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F126" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G126" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127">
@@ -3793,22 +3790,22 @@
         <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E127" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F127" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G127" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128">
@@ -3816,22 +3813,22 @@
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E128" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F128" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G128" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="129">
@@ -3839,22 +3836,22 @@
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="F129" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G129" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130">
@@ -3862,22 +3859,22 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
         <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E130" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F130" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131">
@@ -3885,22 +3882,22 @@
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D131" t="s">
         <v>25</v>
       </c>
       <c r="E131" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F131" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G131" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132">
@@ -3908,22 +3905,22 @@
         <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D132" t="s">
         <v>26</v>
       </c>
       <c r="E132" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F132" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G132" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133">
@@ -3931,22 +3928,22 @@
         <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F133" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G133" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134">
@@ -3954,22 +3951,22 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E134" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F134" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G134" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135">
@@ -3977,22 +3974,22 @@
         <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D135" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E135" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F135" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G135" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
     </row>
     <row r="136">
@@ -4000,22 +3997,22 @@
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E136" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F136" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G136" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137">
@@ -4023,22 +4020,22 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D137" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E137" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F137" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="G137" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138">
@@ -4046,22 +4043,22 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E138" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F138" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G138" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139">
@@ -4069,22 +4066,22 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C139" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E139" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F139" t="s">
         <v>182</v>
       </c>
       <c r="G139" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140">
@@ -4092,22 +4089,22 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E140" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F140" t="s">
         <v>183</v>
       </c>
       <c r="G140" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141">
@@ -4115,22 +4112,22 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D141" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E141" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F141" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G141" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="142">
@@ -4138,22 +4135,22 @@
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E142" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F142" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G142" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143">
@@ -4161,22 +4158,22 @@
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C143" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D143" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E143" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F143" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G143" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="144">
@@ -4184,22 +4181,22 @@
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D144" t="s">
         <v>27</v>
       </c>
       <c r="E144" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F144" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G144" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145">
@@ -4207,22 +4204,22 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C145" t="s">
         <v>20</v>
       </c>
       <c r="D145" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E145" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F145" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="G145" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="146">
@@ -4230,22 +4227,22 @@
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D146" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E146" t="s">
         <v>89</v>
       </c>
       <c r="F146" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G146" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147">
@@ -4253,22 +4250,22 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D147" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E147" t="s">
         <v>90</v>
       </c>
       <c r="F147" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148">
@@ -4276,22 +4273,22 @@
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E148" t="s">
         <v>91</v>
       </c>
       <c r="F148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G148" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149">
@@ -4299,19 +4296,19 @@
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C149" t="s">
         <v>21</v>
       </c>
       <c r="D149" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E149" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F149" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G149" t="s">
         <v>259</v>
@@ -4322,19 +4319,19 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C150" t="s">
         <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E150" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F150" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="G150" t="s">
         <v>260</v>
@@ -4345,22 +4342,22 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E151" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F151" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G151" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="152">
@@ -4368,22 +4365,22 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D152" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E152" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F152" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G152" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153">
@@ -4391,22 +4388,22 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F153" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G153" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154">
@@ -4414,22 +4411,22 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E154" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F154" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G154" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155">
@@ -4437,22 +4434,22 @@
         <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E155" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F155" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G155" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156">
@@ -4460,22 +4457,22 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C156" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E156" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F156" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G156" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157">
@@ -4483,22 +4480,22 @@
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C157" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E157" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F157" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G157" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="158">
@@ -4506,22 +4503,22 @@
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E158" t="s">
         <v>90</v>
       </c>
       <c r="F158" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G158" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="159">
@@ -4532,19 +4529,19 @@
         <v>17</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E159" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F159" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G159" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160">
@@ -4555,19 +4552,19 @@
         <v>17</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D160" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F160" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G160" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="161">
@@ -4578,19 +4575,19 @@
         <v>17</v>
       </c>
       <c r="C161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E161" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F161" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G161" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162">
@@ -4601,19 +4598,19 @@
         <v>17</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E162" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F162" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G162" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="163">
@@ -4624,19 +4621,19 @@
         <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E163" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F163" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G163" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164">
@@ -4647,19 +4644,19 @@
         <v>17</v>
       </c>
       <c r="C164" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E164" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F164" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G164" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165">
@@ -4670,19 +4667,19 @@
         <v>17</v>
       </c>
       <c r="C165" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E165" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F165" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G165" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="166">
@@ -4693,19 +4690,19 @@
         <v>17</v>
       </c>
       <c r="C166" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E166" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F166" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G166" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167">
@@ -4716,19 +4713,19 @@
         <v>17</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E167" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F167" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G167" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="168">
@@ -4739,19 +4736,19 @@
         <v>17</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E168" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F168" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G168" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169">
@@ -4762,19 +4759,19 @@
         <v>17</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E169" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F169" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G169" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="170">
@@ -4785,19 +4782,19 @@
         <v>17</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D170" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E170" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F170" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G170" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="171">
@@ -4808,19 +4805,19 @@
         <v>17</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D171" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E171" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F171" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G171" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="172">
@@ -4831,19 +4828,19 @@
         <v>17</v>
       </c>
       <c r="C172" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E172" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F172" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G172" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="173">
@@ -4854,19 +4851,19 @@
         <v>17</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E173" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F173" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G173" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="174">
@@ -4877,19 +4874,19 @@
         <v>17</v>
       </c>
       <c r="C174" t="s">
+        <v>23</v>
+      </c>
+      <c r="D174" t="s">
         <v>24</v>
       </c>
-      <c r="D174" t="s">
-        <v>25</v>
-      </c>
       <c r="E174" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F174" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G174" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="175">
@@ -4900,19 +4897,19 @@
         <v>17</v>
       </c>
       <c r="C175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D175" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E175" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F175" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G175" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="176">
@@ -4923,19 +4920,19 @@
         <v>17</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E176" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F176" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="177">
@@ -4946,19 +4943,19 @@
         <v>17</v>
       </c>
       <c r="C177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E177" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F177" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G177" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="178">
@@ -4969,19 +4966,19 @@
         <v>17</v>
       </c>
       <c r="C178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E178" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F178" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G178" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="179">
@@ -4992,19 +4989,19 @@
         <v>17</v>
       </c>
       <c r="C179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E179" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F179" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G179" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="180">
@@ -5015,19 +5012,19 @@
         <v>17</v>
       </c>
       <c r="C180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E180" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F180" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G180" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181">
@@ -5038,19 +5035,19 @@
         <v>14</v>
       </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E181" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F181" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G181" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="182">
@@ -5061,19 +5058,19 @@
         <v>14</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D182" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E182" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F182" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G182" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="183">
@@ -5084,19 +5081,19 @@
         <v>14</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E183" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F183" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G183" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="184">
@@ -5107,19 +5104,19 @@
         <v>14</v>
       </c>
       <c r="C184" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D184" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E184" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G184" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="185">
@@ -5130,19 +5127,19 @@
         <v>14</v>
       </c>
       <c r="C185" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E185" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F185" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G185" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="186">
@@ -5153,19 +5150,19 @@
         <v>14</v>
       </c>
       <c r="C186" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E186" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F186" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="187">
@@ -5176,19 +5173,19 @@
         <v>14</v>
       </c>
       <c r="C187" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E187" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F187" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G187" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="188">
@@ -5199,19 +5196,19 @@
         <v>14</v>
       </c>
       <c r="C188" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D188" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E188" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F188" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G188" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="189">
@@ -5222,19 +5219,19 @@
         <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D189" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E189" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F189" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G189" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="190">
@@ -5245,19 +5242,19 @@
         <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E190" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F190" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G190" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="191">
@@ -5268,19 +5265,19 @@
         <v>15</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E191" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F191" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G191" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="192">
@@ -5291,19 +5288,19 @@
         <v>15</v>
       </c>
       <c r="C192" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E192" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F192" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G192" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="193">
@@ -5314,19 +5311,19 @@
         <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E193" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F193" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G193" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="194">
@@ -5337,19 +5334,19 @@
         <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E194" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F194" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G194" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="195">
@@ -5360,19 +5357,19 @@
         <v>16</v>
       </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E195" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G195" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196">
@@ -5383,19 +5380,19 @@
         <v>18</v>
       </c>
       <c r="C196" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E196" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F196" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G196" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197">
@@ -5406,19 +5403,19 @@
         <v>18</v>
       </c>
       <c r="C197" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E197" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G197" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198">
@@ -5429,19 +5426,19 @@
         <v>18</v>
       </c>
       <c r="C198" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D198" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E198" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F198" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G198" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199">
@@ -5452,19 +5449,19 @@
         <v>18</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E199" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G199" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200">
@@ -5475,19 +5472,19 @@
         <v>18</v>
       </c>
       <c r="C200" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D200" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E200" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F200" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G200" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="201">
@@ -5498,19 +5495,19 @@
         <v>18</v>
       </c>
       <c r="C201" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D201" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E201" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F201" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G201" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="202">
@@ -5521,19 +5518,19 @@
         <v>18</v>
       </c>
       <c r="C202" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E202" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F202" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G202" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="203">
@@ -5544,19 +5541,19 @@
         <v>18</v>
       </c>
       <c r="C203" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E203" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F203" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G203" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="204">
@@ -5567,19 +5564,19 @@
         <v>18</v>
       </c>
       <c r="C204" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E204" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F204" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G204" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205">
@@ -5590,19 +5587,19 @@
         <v>18</v>
       </c>
       <c r="C205" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D205" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E205" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F205" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G205" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206">
@@ -5613,19 +5610,19 @@
         <v>18</v>
       </c>
       <c r="C206" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D206" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E206" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F206" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G206" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="207">
@@ -5636,19 +5633,19 @@
         <v>18</v>
       </c>
       <c r="C207" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D207" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E207" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F207" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G207" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="208">
@@ -5659,19 +5656,19 @@
         <v>18</v>
       </c>
       <c r="C208" t="s">
+        <v>23</v>
+      </c>
+      <c r="D208" t="s">
         <v>24</v>
       </c>
-      <c r="D208" t="s">
-        <v>25</v>
-      </c>
       <c r="E208" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F208" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G208" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209">
@@ -5682,19 +5679,19 @@
         <v>18</v>
       </c>
       <c r="C209" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D209" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E209" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F209" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G209" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="210">
@@ -5705,19 +5702,19 @@
         <v>18</v>
       </c>
       <c r="C210" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E210" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F210" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G210" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="211">
@@ -5728,19 +5725,19 @@
         <v>18</v>
       </c>
       <c r="C211" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D211" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E211" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F211" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G211" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="212">
@@ -5751,19 +5748,19 @@
         <v>18</v>
       </c>
       <c r="C212" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E212" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F212" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G212" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213">
@@ -5774,19 +5771,19 @@
         <v>18</v>
       </c>
       <c r="C213" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D213" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E213" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F213" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="214">
@@ -5797,19 +5794,19 @@
         <v>17</v>
       </c>
       <c r="C214" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E214" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F214" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G214" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="215">
@@ -5820,19 +5817,19 @@
         <v>17</v>
       </c>
       <c r="C215" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E215" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F215" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G215" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216">
@@ -5843,19 +5840,19 @@
         <v>17</v>
       </c>
       <c r="C216" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D216" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E216" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F216" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G216" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="217">
@@ -5866,19 +5863,19 @@
         <v>17</v>
       </c>
       <c r="C217" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D217" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E217" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F217" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G217" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="218">
@@ -5889,19 +5886,19 @@
         <v>17</v>
       </c>
       <c r="C218" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E218" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F218" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G218" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="219">
@@ -5912,19 +5909,19 @@
         <v>17</v>
       </c>
       <c r="C219" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D219" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E219" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F219" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G219" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220">
@@ -5935,19 +5932,19 @@
         <v>17</v>
       </c>
       <c r="C220" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D220" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E220" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F220" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G220" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="221">
@@ -5958,19 +5955,19 @@
         <v>17</v>
       </c>
       <c r="C221" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E221" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F221" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G221" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="222">
@@ -5981,19 +5978,19 @@
         <v>17</v>
       </c>
       <c r="C222" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E222" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F222" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G222" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223">
@@ -6004,19 +6001,19 @@
         <v>17</v>
       </c>
       <c r="C223" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D223" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E223" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F223" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G223" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="224">
@@ -6027,19 +6024,19 @@
         <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E224" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F224" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G224" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="225">
@@ -6050,19 +6047,19 @@
         <v>17</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D225" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E225" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F225" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="226">
@@ -6073,19 +6070,19 @@
         <v>17</v>
       </c>
       <c r="C226" t="s">
+        <v>23</v>
+      </c>
+      <c r="D226" t="s">
         <v>24</v>
       </c>
-      <c r="D226" t="s">
-        <v>25</v>
-      </c>
       <c r="E226" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F226" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G226" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="227">
@@ -6096,19 +6093,19 @@
         <v>17</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E227" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F227" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G227" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="228">
@@ -6119,19 +6116,19 @@
         <v>17</v>
       </c>
       <c r="C228" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E228" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F228" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="229">
@@ -6142,19 +6139,19 @@
         <v>17</v>
       </c>
       <c r="C229" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D229" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E229" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F229" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G229" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="230">
@@ -6165,19 +6162,19 @@
         <v>17</v>
       </c>
       <c r="C230" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D230" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E230" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F230" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G230" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="231">
@@ -6188,19 +6185,19 @@
         <v>17</v>
       </c>
       <c r="C231" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D231" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E231" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F231" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G231" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="232">
@@ -6211,19 +6208,19 @@
         <v>14</v>
       </c>
       <c r="C232" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E232" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F232" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G232" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="233">
@@ -6234,19 +6231,19 @@
         <v>14</v>
       </c>
       <c r="C233" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D233" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E233" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F233" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G233" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="234">
@@ -6257,19 +6254,19 @@
         <v>14</v>
       </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E234" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F234" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G234" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="235">
@@ -6280,19 +6277,19 @@
         <v>14</v>
       </c>
       <c r="C235" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D235" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E235" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F235" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G235" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236">
@@ -6303,19 +6300,19 @@
         <v>14</v>
       </c>
       <c r="C236" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D236" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E236" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F236" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G236" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="237">
@@ -6326,19 +6323,19 @@
         <v>14</v>
       </c>
       <c r="C237" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D237" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E237" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F237" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G237" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="238">
@@ -6349,19 +6346,19 @@
         <v>14</v>
       </c>
       <c r="C238" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D238" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E238" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F238" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G238" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="239">
@@ -6372,19 +6369,19 @@
         <v>14</v>
       </c>
       <c r="C239" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D239" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E239" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F239" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G239" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="240">
@@ -6395,19 +6392,19 @@
         <v>14</v>
       </c>
       <c r="C240" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D240" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E240" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F240" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G240" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241">
@@ -6418,19 +6415,19 @@
         <v>14</v>
       </c>
       <c r="C241" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D241" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E241" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F241" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G241" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="242">
@@ -6441,19 +6438,19 @@
         <v>14</v>
       </c>
       <c r="C242" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D242" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E242" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F242" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G242" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243">
@@ -6464,19 +6461,19 @@
         <v>14</v>
       </c>
       <c r="C243" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E243" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F243" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G243" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="244">
@@ -6487,19 +6484,19 @@
         <v>14</v>
       </c>
       <c r="C244" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D244" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E244" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F244" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G244" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="245">
@@ -6510,19 +6507,19 @@
         <v>14</v>
       </c>
       <c r="C245" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E245" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F245" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G245" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="246">
@@ -6533,19 +6530,19 @@
         <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D246" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E246" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F246" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G246" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="247">
@@ -6556,19 +6553,19 @@
         <v>14</v>
       </c>
       <c r="C247" t="s">
+        <v>23</v>
+      </c>
+      <c r="D247" t="s">
         <v>24</v>
       </c>
-      <c r="D247" t="s">
-        <v>25</v>
-      </c>
       <c r="E247" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F247" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G247" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="248">
@@ -6579,19 +6576,19 @@
         <v>14</v>
       </c>
       <c r="C248" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D248" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E248" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F248" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G248" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="249">
@@ -6602,19 +6599,19 @@
         <v>14</v>
       </c>
       <c r="C249" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D249" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E249" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F249" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G249" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="250">
@@ -6625,19 +6622,19 @@
         <v>14</v>
       </c>
       <c r="C250" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D250" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E250" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F250" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G250" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="251">
@@ -6648,19 +6645,19 @@
         <v>14</v>
       </c>
       <c r="C251" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D251" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E251" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F251" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G251" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="252">
@@ -6671,19 +6668,19 @@
         <v>14</v>
       </c>
       <c r="C252" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D252" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E252" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F252" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G252" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="253">
@@ -6694,19 +6691,19 @@
         <v>14</v>
       </c>
       <c r="C253" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D253" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E253" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F253" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G253" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="254">
@@ -6717,19 +6714,19 @@
         <v>15</v>
       </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D254" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E254" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F254" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G254" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255">
@@ -6740,19 +6737,19 @@
         <v>15</v>
       </c>
       <c r="C255" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D255" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E255" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F255" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G255" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256">
@@ -6763,19 +6760,19 @@
         <v>15</v>
       </c>
       <c r="C256" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D256" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E256" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F256" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G256" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="257">
@@ -6786,19 +6783,19 @@
         <v>15</v>
       </c>
       <c r="C257" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D257" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E257" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F257" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G257" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="258">
@@ -6809,19 +6806,19 @@
         <v>15</v>
       </c>
       <c r="C258" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D258" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E258" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F258" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G258" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="259">
@@ -6832,19 +6829,19 @@
         <v>15</v>
       </c>
       <c r="C259" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D259" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E259" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F259" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G259" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="260">
@@ -6855,19 +6852,19 @@
         <v>15</v>
       </c>
       <c r="C260" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D260" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E260" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F260" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G260" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="261">
@@ -6878,19 +6875,19 @@
         <v>15</v>
       </c>
       <c r="C261" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D261" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E261" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F261" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G261" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262">
@@ -6901,19 +6898,19 @@
         <v>15</v>
       </c>
       <c r="C262" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D262" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E262" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F262" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G262" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="263">
@@ -6924,19 +6921,19 @@
         <v>15</v>
       </c>
       <c r="C263" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D263" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E263" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F263" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G263" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="264">
@@ -6947,19 +6944,19 @@
         <v>15</v>
       </c>
       <c r="C264" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D264" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E264" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F264" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G264" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="265">
@@ -6970,19 +6967,19 @@
         <v>15</v>
       </c>
       <c r="C265" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D265" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E265" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F265" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G265" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="266">
@@ -6993,19 +6990,19 @@
         <v>15</v>
       </c>
       <c r="C266" t="s">
+        <v>23</v>
+      </c>
+      <c r="D266" t="s">
         <v>24</v>
       </c>
-      <c r="D266" t="s">
-        <v>25</v>
-      </c>
       <c r="E266" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F266" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G266" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="267">
@@ -7016,19 +7013,19 @@
         <v>15</v>
       </c>
       <c r="C267" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D267" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E267" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F267" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G267" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="268">
@@ -7039,19 +7036,19 @@
         <v>15</v>
       </c>
       <c r="C268" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D268" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E268" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F268" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G268" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="269">
@@ -7062,19 +7059,19 @@
         <v>15</v>
       </c>
       <c r="C269" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D269" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E269" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F269" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G269" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="270">
@@ -7085,19 +7082,19 @@
         <v>15</v>
       </c>
       <c r="C270" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D270" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E270" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F270" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G270" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="271">
@@ -7108,19 +7105,19 @@
         <v>15</v>
       </c>
       <c r="C271" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D271" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E271" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F271" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G271" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="272">
@@ -7131,19 +7128,19 @@
         <v>16</v>
       </c>
       <c r="C272" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D272" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E272" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F272" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G272" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="273">
@@ -7154,19 +7151,19 @@
         <v>16</v>
       </c>
       <c r="C273" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D273" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E273" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F273" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G273" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="274">
@@ -7177,19 +7174,19 @@
         <v>16</v>
       </c>
       <c r="C274" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D274" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E274" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F274" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G274" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="275">
@@ -7200,19 +7197,19 @@
         <v>16</v>
       </c>
       <c r="C275" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D275" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E275" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F275" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G275" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="276">
@@ -7223,19 +7220,19 @@
         <v>16</v>
       </c>
       <c r="C276" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D276" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E276" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F276" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G276" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="277">
@@ -7246,19 +7243,19 @@
         <v>16</v>
       </c>
       <c r="C277" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D277" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E277" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F277" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G277" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="278">
@@ -7269,19 +7266,19 @@
         <v>16</v>
       </c>
       <c r="C278" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D278" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E278" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F278" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G278" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="279">
@@ -7292,19 +7289,19 @@
         <v>16</v>
       </c>
       <c r="C279" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D279" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E279" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F279" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G279" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="280">
@@ -7315,19 +7312,19 @@
         <v>16</v>
       </c>
       <c r="C280" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D280" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E280" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F280" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G280" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="281">
@@ -7338,19 +7335,19 @@
         <v>16</v>
       </c>
       <c r="C281" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D281" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E281" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F281" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G281" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="282">
@@ -7361,19 +7358,19 @@
         <v>16</v>
       </c>
       <c r="C282" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D282" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E282" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F282" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G282" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="283">
@@ -7384,19 +7381,19 @@
         <v>16</v>
       </c>
       <c r="C283" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D283" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E283" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F283" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G283" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="284">
@@ -7407,19 +7404,19 @@
         <v>16</v>
       </c>
       <c r="C284" t="s">
+        <v>23</v>
+      </c>
+      <c r="D284" t="s">
         <v>24</v>
       </c>
-      <c r="D284" t="s">
-        <v>25</v>
-      </c>
       <c r="E284" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F284" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G284" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="285">
@@ -7430,19 +7427,19 @@
         <v>16</v>
       </c>
       <c r="C285" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D285" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E285" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F285" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G285" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="286">
@@ -7453,19 +7450,19 @@
         <v>16</v>
       </c>
       <c r="C286" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D286" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E286" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F286" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G286" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="287">
@@ -7476,19 +7473,19 @@
         <v>16</v>
       </c>
       <c r="C287" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D287" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E287" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F287" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G287" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="288">
@@ -7499,19 +7496,19 @@
         <v>16</v>
       </c>
       <c r="C288" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D288" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E288" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F288" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G288" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="289">
@@ -7522,19 +7519,19 @@
         <v>16</v>
       </c>
       <c r="C289" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D289" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E289" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F289" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G289" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="290">
@@ -7545,19 +7542,19 @@
         <v>14</v>
       </c>
       <c r="C290" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D290" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E290" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F290" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G290" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="291">
@@ -7568,19 +7565,19 @@
         <v>14</v>
       </c>
       <c r="C291" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D291" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E291" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F291" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G291" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="292">
@@ -7591,19 +7588,19 @@
         <v>14</v>
       </c>
       <c r="C292" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D292" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E292" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F292" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G292" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="293">
@@ -7614,19 +7611,19 @@
         <v>14</v>
       </c>
       <c r="C293" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D293" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E293" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F293" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G293" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="294">
@@ -7637,19 +7634,19 @@
         <v>15</v>
       </c>
       <c r="C294" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D294" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E294" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F294" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G294" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="295">
@@ -7660,19 +7657,19 @@
         <v>15</v>
       </c>
       <c r="C295" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D295" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E295" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F295" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G295" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="296">
@@ -7683,19 +7680,19 @@
         <v>15</v>
       </c>
       <c r="C296" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D296" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E296" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F296" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G296" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="297">
@@ -7706,19 +7703,19 @@
         <v>15</v>
       </c>
       <c r="C297" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D297" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E297" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F297" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G297" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="298">
@@ -7729,19 +7726,19 @@
         <v>15</v>
       </c>
       <c r="C298" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D298" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E298" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F298" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G298" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="299">
@@ -7752,19 +7749,19 @@
         <v>15</v>
       </c>
       <c r="C299" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D299" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E299" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F299" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G299" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="300">
@@ -7775,19 +7772,19 @@
         <v>15</v>
       </c>
       <c r="C300" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D300" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E300" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F300" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G300" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/output/plant_protection.xlsx
+++ b/output/plant_protection.xlsx
@@ -35,9 +35,6 @@
     <t>Chemical</t>
   </si>
   <si>
-    <t>BON</t>
-  </si>
-  <si>
     <t>DKI</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
     <t>HAN</t>
   </si>
   <si>
+    <t>KAL</t>
+  </si>
+  <si>
     <t>KIE</t>
   </si>
   <si>
@@ -56,58 +56,61 @@
     <t>RHH</t>
   </si>
   <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>2015</t>
   </si>
   <si>
-    <t>2016</t>
+    <t>2018</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2018</t>
+    <t>HN_WF</t>
   </si>
   <si>
     <t>HN_NF</t>
   </si>
   <si>
-    <t>HN_WF</t>
+    <t>HN_WF_D</t>
   </si>
   <si>
     <t>LN_NF</t>
   </si>
   <si>
-    <t>HN_WF_D</t>
-  </si>
-  <si>
     <t>LN_WF</t>
   </si>
   <si>
     <t>1st herbicide</t>
   </si>
   <si>
+    <t>1st application of insecticide</t>
+  </si>
+  <si>
+    <t>3rd application of fungicide</t>
+  </si>
+  <si>
+    <t>1st application of fungicide</t>
+  </si>
+  <si>
+    <t>2nd application of fungicide</t>
+  </si>
+  <si>
+    <t>1st application of growth regulator</t>
+  </si>
+  <si>
+    <t>2nd application of growth regulator</t>
+  </si>
+  <si>
     <t>2nd herbicide</t>
   </si>
   <si>
-    <t>1st application of insecticide</t>
-  </si>
-  <si>
-    <t>1st application of growth regulator</t>
-  </si>
-  <si>
-    <t>2nd application of growth regulator</t>
-  </si>
-  <si>
-    <t>1st application of fungicide</t>
-  </si>
-  <si>
-    <t>2nd application of fungicide</t>
-  </si>
-  <si>
-    <t>3rd application of fungicide</t>
+    <t>2nd application of insecticide</t>
   </si>
   <si>
     <t>4th application of fungicide</t>
@@ -119,7 +122,133 @@
     <t>2nd application of herbicide</t>
   </si>
   <si>
-    <t>2nd application of insecticide</t>
+    <t>2015-10-25</t>
+  </si>
+  <si>
+    <t>2016-06-11</t>
+  </si>
+  <si>
+    <t>2018-10-14</t>
+  </si>
+  <si>
+    <t>2019-04-20</t>
+  </si>
+  <si>
+    <t>2019-05-11</t>
+  </si>
+  <si>
+    <t>2019-06-07</t>
+  </si>
+  <si>
+    <t>2015-04-10</t>
+  </si>
+  <si>
+    <t>2015-04-12</t>
+  </si>
+  <si>
+    <t>2015-04-26</t>
+  </si>
+  <si>
+    <t>2015-05-25</t>
+  </si>
+  <si>
+    <t>2016-04-09</t>
+  </si>
+  <si>
+    <t>2016-04-13</t>
+  </si>
+  <si>
+    <t>2016-05-27</t>
+  </si>
+  <si>
+    <t>2018-04-05</t>
+  </si>
+  <si>
+    <t>2018-05-28</t>
+  </si>
+  <si>
+    <t>2018-07-29</t>
+  </si>
+  <si>
+    <t>2015-03-21</t>
+  </si>
+  <si>
+    <t>2015-03-26</t>
+  </si>
+  <si>
+    <t>2015-06-06</t>
+  </si>
+  <si>
+    <t>2015-04-18</t>
+  </si>
+  <si>
+    <t>2015-05-06</t>
+  </si>
+  <si>
+    <t>2015-06-18</t>
+  </si>
+  <si>
+    <t>2016-04-07</t>
+  </si>
+  <si>
+    <t>2016-06-02</t>
+  </si>
+  <si>
+    <t>2016-04-23</t>
+  </si>
+  <si>
+    <t>2016-04-16</t>
+  </si>
+  <si>
+    <t>2016-05-21</t>
+  </si>
+  <si>
+    <t>2016-06-10</t>
+  </si>
+  <si>
+    <t>2017-04-22</t>
+  </si>
+  <si>
+    <t>2017-04-13</t>
+  </si>
+  <si>
+    <t>2017-06-03</t>
+  </si>
+  <si>
+    <t>2017-05-05</t>
+  </si>
+  <si>
+    <t>2017-05-11</t>
+  </si>
+  <si>
+    <t>2017-06-21</t>
+  </si>
+  <si>
+    <t>2018-04-07</t>
+  </si>
+  <si>
+    <t>2018-05-17</t>
+  </si>
+  <si>
+    <t>2018-06-01</t>
+  </si>
+  <si>
+    <t>2018-04-29</t>
+  </si>
+  <si>
+    <t>2019-04-10</t>
+  </si>
+  <si>
+    <t>2019-06-05</t>
+  </si>
+  <si>
+    <t>2019-05-26</t>
+  </si>
+  <si>
+    <t>2019-04-14</t>
+  </si>
+  <si>
+    <t>2019-06-09</t>
   </si>
   <si>
     <t>2015-03-19</t>
@@ -134,9 +263,6 @@
     <t>2015-04-09</t>
   </si>
   <si>
-    <t>2015-04-18</t>
-  </si>
-  <si>
     <t>2015-04-19</t>
   </si>
   <si>
@@ -161,9 +287,6 @@
     <t>2016-05-04</t>
   </si>
   <si>
-    <t>2016-05-21</t>
-  </si>
-  <si>
     <t>2016-11-05</t>
   </si>
   <si>
@@ -185,129 +308,6 @@
     <t>2017-06-02</t>
   </si>
   <si>
-    <t>2015-10-25</t>
-  </si>
-  <si>
-    <t>2016-06-11</t>
-  </si>
-  <si>
-    <t>2018-10-14</t>
-  </si>
-  <si>
-    <t>2019-04-20</t>
-  </si>
-  <si>
-    <t>2019-05-11</t>
-  </si>
-  <si>
-    <t>2019-06-07</t>
-  </si>
-  <si>
-    <t>2015-04-10</t>
-  </si>
-  <si>
-    <t>2015-04-12</t>
-  </si>
-  <si>
-    <t>2015-04-26</t>
-  </si>
-  <si>
-    <t>2015-05-25</t>
-  </si>
-  <si>
-    <t>2016-04-09</t>
-  </si>
-  <si>
-    <t>2016-04-13</t>
-  </si>
-  <si>
-    <t>2016-05-27</t>
-  </si>
-  <si>
-    <t>2018-04-05</t>
-  </si>
-  <si>
-    <t>2018-05-28</t>
-  </si>
-  <si>
-    <t>2018-07-29</t>
-  </si>
-  <si>
-    <t>2015-03-21</t>
-  </si>
-  <si>
-    <t>2015-03-26</t>
-  </si>
-  <si>
-    <t>2015-06-06</t>
-  </si>
-  <si>
-    <t>2015-05-06</t>
-  </si>
-  <si>
-    <t>2015-06-18</t>
-  </si>
-  <si>
-    <t>2016-04-07</t>
-  </si>
-  <si>
-    <t>2016-06-02</t>
-  </si>
-  <si>
-    <t>2016-04-23</t>
-  </si>
-  <si>
-    <t>2016-04-16</t>
-  </si>
-  <si>
-    <t>2016-06-10</t>
-  </si>
-  <si>
-    <t>2017-04-22</t>
-  </si>
-  <si>
-    <t>2017-04-13</t>
-  </si>
-  <si>
-    <t>2017-06-03</t>
-  </si>
-  <si>
-    <t>2017-05-05</t>
-  </si>
-  <si>
-    <t>2017-05-11</t>
-  </si>
-  <si>
-    <t>2017-06-21</t>
-  </si>
-  <si>
-    <t>2018-04-07</t>
-  </si>
-  <si>
-    <t>2018-05-17</t>
-  </si>
-  <si>
-    <t>2018-06-01</t>
-  </si>
-  <si>
-    <t>2018-04-29</t>
-  </si>
-  <si>
-    <t>2019-04-10</t>
-  </si>
-  <si>
-    <t>2019-06-05</t>
-  </si>
-  <si>
-    <t>2019-05-26</t>
-  </si>
-  <si>
-    <t>2019-04-14</t>
-  </si>
-  <si>
-    <t>2019-06-09</t>
-  </si>
-  <si>
     <t>2014-11-01</t>
   </si>
   <si>
@@ -386,12 +386,162 @@
     <t>2016-04-15</t>
   </si>
   <si>
+    <t>0.4l</t>
+  </si>
+  <si>
+    <t>100ml Fastac + 100g Pirivor</t>
+  </si>
+  <si>
+    <t>1.2l</t>
+  </si>
+  <si>
+    <t>0.4 l</t>
+  </si>
+  <si>
+    <t>0.6l</t>
+  </si>
+  <si>
+    <t>1.0l</t>
+  </si>
+  <si>
+    <t>2.0l</t>
+  </si>
+  <si>
+    <t>1.2l, 0.5l</t>
+  </si>
+  <si>
+    <t>0.2l, 0.2l</t>
+  </si>
+  <si>
+    <t>70gr/ha+ 1l/ha+1,2l/ha+20gr/ha</t>
+  </si>
+  <si>
+    <t>1 l/ha</t>
+  </si>
+  <si>
+    <t>0,7 l/ha+0,85 l/ha</t>
+  </si>
+  <si>
+    <t>1,5 l /ha</t>
+  </si>
+  <si>
+    <t>0,8 l/ha + 0,2 l/ha</t>
+  </si>
+  <si>
+    <t>0,5 l/ha+2,0 l/ha</t>
+  </si>
+  <si>
+    <t>3,0 l /ha</t>
+  </si>
+  <si>
+    <t>70gr/ha</t>
+  </si>
+  <si>
+    <t>75gr/ha</t>
+  </si>
+  <si>
+    <t>1,25l/ha</t>
+  </si>
+  <si>
+    <t>1,2l/ha</t>
+  </si>
+  <si>
+    <t>70g+1l+20g/ha</t>
+  </si>
+  <si>
+    <t>0,2l/ha</t>
+  </si>
+  <si>
+    <t>1,2 l/ha</t>
+  </si>
+  <si>
+    <t>0,5 l/ha+0,5 l/ha</t>
+  </si>
+  <si>
+    <t>2l/ha</t>
+  </si>
+  <si>
+    <t>1,1l/ha+1,1l/ha</t>
+  </si>
+  <si>
+    <t>1l/ha</t>
+  </si>
+  <si>
+    <t>1,2 l</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,2l</t>
+  </si>
+  <si>
+    <t>0,5l;0,5l</t>
+  </si>
+  <si>
+    <t>2l</t>
+  </si>
+  <si>
+    <t>1,1l;1,1l</t>
+  </si>
+  <si>
+    <t>1l</t>
+  </si>
+  <si>
+    <t>0,07 kg</t>
+  </si>
+  <si>
+    <t>0,2 l</t>
+  </si>
+  <si>
+    <t>1,5 l</t>
+  </si>
+  <si>
+    <t>1,6 l</t>
+  </si>
+  <si>
+    <t>2 l</t>
+  </si>
+  <si>
+    <t>1 l</t>
+  </si>
+  <si>
+    <t>1,2 l/ha; 70g/ha</t>
+  </si>
+  <si>
+    <t>0,3 l</t>
+  </si>
+  <si>
+    <t>0,075 l</t>
+  </si>
+  <si>
+    <t>2,1 l; 1,5L/ha</t>
+  </si>
+  <si>
+    <t>1,5 l/ha</t>
+  </si>
+  <si>
+    <t>0,3l/ha</t>
+  </si>
+  <si>
+    <t>0,075 l/ha</t>
+  </si>
+  <si>
+    <t>0,5 l; 0,5L/ha</t>
+  </si>
+  <si>
+    <t>0,75 l/ha</t>
+  </si>
+  <si>
+    <t>0.9 l/ha; 70g/ha;1l</t>
+  </si>
+  <si>
+    <t>0.5 l; 0,5l/ha</t>
+  </si>
+  <si>
+    <t>0.75 l/ha</t>
+  </si>
+  <si>
     <t xml:space="preserve">150 gr/ha + 0,7 l/ha + 1,5 l/ha </t>
   </si>
   <si>
-    <t>1,5 l/ha</t>
-  </si>
-  <si>
     <t>75 ml/ha</t>
   </si>
   <si>
@@ -440,156 +590,6 @@
     <t>1,5l/ha</t>
   </si>
   <si>
-    <t>0.4l</t>
-  </si>
-  <si>
-    <t>100ml Fastac + 100g Pirivor</t>
-  </si>
-  <si>
-    <t>1.2l</t>
-  </si>
-  <si>
-    <t>0.4 l</t>
-  </si>
-  <si>
-    <t>0.6l</t>
-  </si>
-  <si>
-    <t>1.0l</t>
-  </si>
-  <si>
-    <t>2.0l</t>
-  </si>
-  <si>
-    <t>1.2l, 0.5l</t>
-  </si>
-  <si>
-    <t>0.2l, 0.2l</t>
-  </si>
-  <si>
-    <t>70gr/ha+ 1l/ha+1,2l/ha+20gr/ha</t>
-  </si>
-  <si>
-    <t>1 l/ha</t>
-  </si>
-  <si>
-    <t>0,7 l/ha+0,85 l/ha</t>
-  </si>
-  <si>
-    <t>1,5 l /ha</t>
-  </si>
-  <si>
-    <t>0,8 l/ha + 0,2 l/ha</t>
-  </si>
-  <si>
-    <t>0,5 l/ha+2,0 l/ha</t>
-  </si>
-  <si>
-    <t>3,0 l /ha</t>
-  </si>
-  <si>
-    <t>70gr/ha</t>
-  </si>
-  <si>
-    <t>75gr/ha</t>
-  </si>
-  <si>
-    <t>1,25l/ha</t>
-  </si>
-  <si>
-    <t>1,2l/ha</t>
-  </si>
-  <si>
-    <t>70g+1l+20g/ha</t>
-  </si>
-  <si>
-    <t>0,2l/ha</t>
-  </si>
-  <si>
-    <t>1,2 l/ha</t>
-  </si>
-  <si>
-    <t>0,5 l/ha+0,5 l/ha</t>
-  </si>
-  <si>
-    <t>2l/ha</t>
-  </si>
-  <si>
-    <t>1,1l/ha+1,1l/ha</t>
-  </si>
-  <si>
-    <t>1l/ha</t>
-  </si>
-  <si>
-    <t>1,2 l</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,2l</t>
-  </si>
-  <si>
-    <t>0,5l;0,5l</t>
-  </si>
-  <si>
-    <t>2l</t>
-  </si>
-  <si>
-    <t>1,1l;1,1l</t>
-  </si>
-  <si>
-    <t>1l</t>
-  </si>
-  <si>
-    <t>0,07 kg</t>
-  </si>
-  <si>
-    <t>0,2 l</t>
-  </si>
-  <si>
-    <t>1,5 l</t>
-  </si>
-  <si>
-    <t>1,6 l</t>
-  </si>
-  <si>
-    <t>2 l</t>
-  </si>
-  <si>
-    <t>1 l</t>
-  </si>
-  <si>
-    <t>1,2 l/ha; 70g/ha</t>
-  </si>
-  <si>
-    <t>0,3 l</t>
-  </si>
-  <si>
-    <t>0,075 l</t>
-  </si>
-  <si>
-    <t>2,1 l; 1,5L/ha</t>
-  </si>
-  <si>
-    <t>0,3l/ha</t>
-  </si>
-  <si>
-    <t>0,075 l/ha</t>
-  </si>
-  <si>
-    <t>0,5 l; 0,5L/ha</t>
-  </si>
-  <si>
-    <t>0,75 l/ha</t>
-  </si>
-  <si>
-    <t>0.9 l/ha; 70g/ha;1l</t>
-  </si>
-  <si>
-    <t>0.5 l; 0,5l/ha</t>
-  </si>
-  <si>
-    <t>0.75 l/ha</t>
-  </si>
-  <si>
     <t>0.7 l</t>
   </si>
   <si>
@@ -644,21 +644,141 @@
     <t>jew 0.75 lh/ha</t>
   </si>
   <si>
+    <t>Herold SC</t>
+  </si>
+  <si>
+    <t>Blattläuse</t>
+  </si>
+  <si>
+    <t>Osiris</t>
+  </si>
+  <si>
+    <t>Herold</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Ascra</t>
+  </si>
+  <si>
+    <t>CCC, Prodax</t>
+  </si>
+  <si>
+    <t>Moxa, Profiethephon</t>
+  </si>
+  <si>
+    <t>Biathlon 4D+Dash+Axial50+Finy</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>Folicur+Stratego</t>
+  </si>
+  <si>
+    <t>Optus Top</t>
+  </si>
+  <si>
+    <t>CCC + Moddus</t>
+  </si>
+  <si>
+    <t>Folicur+Adexar</t>
+  </si>
+  <si>
+    <t>Biathlon 4D</t>
+  </si>
+  <si>
+    <t>Karate Zeon</t>
+  </si>
+  <si>
+    <t>Input Classic</t>
+  </si>
+  <si>
+    <t>Axial</t>
+  </si>
+  <si>
+    <t>Biathlon4D+Dash+Dirigent SX</t>
+  </si>
+  <si>
+    <t>Sumicidien</t>
+  </si>
+  <si>
+    <t>Stabilon 720</t>
+  </si>
+  <si>
+    <t>Stabilon720+Medox Top</t>
+  </si>
+  <si>
+    <t>Capalo</t>
+  </si>
+  <si>
+    <t>Adexa+Diamant</t>
+  </si>
+  <si>
+    <t>Prosaro</t>
+  </si>
+  <si>
+    <t>Sumizidin, Karate Zeon</t>
+  </si>
+  <si>
+    <t>CCC; Medax Top</t>
+  </si>
+  <si>
+    <t>Diamant;Adexar</t>
+  </si>
+  <si>
+    <t>CCC ;Medax Top</t>
+  </si>
+  <si>
+    <t>Axial 50</t>
+  </si>
+  <si>
+    <t>Biathlon 4 D</t>
+  </si>
+  <si>
+    <t>Sumizidin;Karate Zeon</t>
+  </si>
+  <si>
+    <t>Medax Top</t>
+  </si>
+  <si>
+    <t>Capalo/Diamant</t>
+  </si>
+  <si>
+    <t>Adexar</t>
+  </si>
+  <si>
+    <t>Axial 50;Biathlon 4D,Dash</t>
+  </si>
+  <si>
+    <t>Buldlock</t>
+  </si>
+  <si>
+    <t>CCC720; MedaxTop</t>
+  </si>
+  <si>
+    <t>MedaxTop</t>
+  </si>
+  <si>
+    <t>Bullock</t>
+  </si>
+  <si>
+    <t>Bulldock</t>
+  </si>
+  <si>
+    <t>Axial 50;Biathlon 4D;Dash</t>
+  </si>
+  <si>
+    <t>CCCLotus; MedaxTop</t>
+  </si>
+  <si>
     <t>Broadway + FHS +  Arelon Top</t>
   </si>
   <si>
     <t>MCPA</t>
   </si>
   <si>
-    <t>Karate Zeon</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>CCC + Moddus</t>
-  </si>
-  <si>
     <t>Diamant</t>
   </si>
   <si>
@@ -687,126 +807,6 @@
   </si>
   <si>
     <t>Osiris + Skyway® Xpro</t>
-  </si>
-  <si>
-    <t>Herold SC</t>
-  </si>
-  <si>
-    <t>Blattläuse</t>
-  </si>
-  <si>
-    <t>Osiris</t>
-  </si>
-  <si>
-    <t>Herold</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>Ascra</t>
-  </si>
-  <si>
-    <t>CCC, Prodax</t>
-  </si>
-  <si>
-    <t>Moxa, Profiethephon</t>
-  </si>
-  <si>
-    <t>Biathlon 4D+Dash+Axial50+Finy</t>
-  </si>
-  <si>
-    <t>Folicur+Stratego</t>
-  </si>
-  <si>
-    <t>Optus Top</t>
-  </si>
-  <si>
-    <t>Folicur+Adexar</t>
-  </si>
-  <si>
-    <t>Biathlon 4D</t>
-  </si>
-  <si>
-    <t>Input Classic</t>
-  </si>
-  <si>
-    <t>Axial</t>
-  </si>
-  <si>
-    <t>Biathlon4D+Dash+Dirigent SX</t>
-  </si>
-  <si>
-    <t>Sumicidien</t>
-  </si>
-  <si>
-    <t>Stabilon 720</t>
-  </si>
-  <si>
-    <t>Stabilon720+Medox Top</t>
-  </si>
-  <si>
-    <t>Capalo</t>
-  </si>
-  <si>
-    <t>Adexa+Diamant</t>
-  </si>
-  <si>
-    <t>Prosaro</t>
-  </si>
-  <si>
-    <t>Sumizidin, Karate Zeon</t>
-  </si>
-  <si>
-    <t>CCC; Medax Top</t>
-  </si>
-  <si>
-    <t>Diamant;Adexar</t>
-  </si>
-  <si>
-    <t>CCC ;Medax Top</t>
-  </si>
-  <si>
-    <t>Axial 50</t>
-  </si>
-  <si>
-    <t>Biathlon 4 D</t>
-  </si>
-  <si>
-    <t>Sumizidin;Karate Zeon</t>
-  </si>
-  <si>
-    <t>Medax Top</t>
-  </si>
-  <si>
-    <t>Capalo/Diamant</t>
-  </si>
-  <si>
-    <t>Adexar</t>
-  </si>
-  <si>
-    <t>Axial 50;Biathlon 4D,Dash</t>
-  </si>
-  <si>
-    <t>Buldlock</t>
-  </si>
-  <si>
-    <t>CCC720; MedaxTop</t>
-  </si>
-  <si>
-    <t>MedaxTop</t>
-  </si>
-  <si>
-    <t>Bullock</t>
-  </si>
-  <si>
-    <t>Bulldock</t>
-  </si>
-  <si>
-    <t>Axial 50;Biathlon 4D;Dash</t>
-  </si>
-  <si>
-    <t>CCCLotus; MedaxTop</t>
   </si>
   <si>
     <t>Ariane C</t>
@@ -970,7 +970,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
         <v>126</v>
@@ -984,16 +984,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>127</v>
@@ -1007,16 +1007,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
         <v>128</v>
@@ -1030,22 +1030,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
@@ -1053,22 +1053,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9">
@@ -1076,22 +1076,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10">
@@ -1099,88 +1099,88 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
         <v>218</v>
@@ -1188,315 +1188,315 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
         <v>134</v>
       </c>
       <c r="G20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G23" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G25" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
         <v>47</v>
@@ -1505,50 +1505,50 @@
         <v>137</v>
       </c>
       <c r="G27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G29" t="s">
         <v>223</v>
@@ -1556,329 +1556,329 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G35" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G36" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G38" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G39" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G40" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G41" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G42" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
         <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G43" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -1887,21 +1887,21 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G44" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -1910,21 +1910,21 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
         <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="G45" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
@@ -1933,220 +1933,220 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
         <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G46" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G47" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G48" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
         <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="G49" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G50" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G51" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G52" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F53" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G53" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G54" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G55" t="s">
         <v>230</v>
@@ -2154,71 +2154,71 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G56" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F57" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G57" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G58" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59">
@@ -2226,22 +2226,22 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F59" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G59" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60">
@@ -2252,19 +2252,19 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G60" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61">
@@ -2278,16 +2278,16 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G61" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62">
@@ -2304,13 +2304,13 @@
         <v>29</v>
       </c>
       <c r="E62" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F62" t="s">
         <v>153</v>
       </c>
       <c r="G62" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63">
@@ -2321,19 +2321,19 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G63" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64">
@@ -2344,19 +2344,19 @@
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F64" t="s">
         <v>152</v>
       </c>
       <c r="G64" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65">
@@ -2367,19 +2367,19 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F65" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66">
@@ -2390,19 +2390,19 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G66" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67">
@@ -2413,19 +2413,19 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F67" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68">
@@ -2436,19 +2436,19 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E68" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G68" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69">
@@ -2459,19 +2459,19 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
         <v>151</v>
       </c>
       <c r="G69" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70">
@@ -2479,22 +2479,22 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E70" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G70" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71">
@@ -2502,22 +2502,22 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F71" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G71" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72">
@@ -2525,22 +2525,22 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F72" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G72" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73">
@@ -2548,22 +2548,22 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F73" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G73" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74">
@@ -2571,22 +2571,22 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F74" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G74" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75">
@@ -2594,22 +2594,22 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F75" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G75" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76">
@@ -2617,22 +2617,22 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F76" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G76" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77">
@@ -2640,22 +2640,22 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F77" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G77" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78">
@@ -2663,22 +2663,22 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F78" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G78" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79">
@@ -2686,22 +2686,22 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E79" t="s">
         <v>68</v>
       </c>
       <c r="F79" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G79" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80">
@@ -2709,22 +2709,22 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E80" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F80" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="G80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81">
@@ -2738,16 +2738,16 @@
         <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E81" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G81" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82">
@@ -2758,19 +2758,19 @@
         <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
         <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G82" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83">
@@ -2781,19 +2781,19 @@
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E83" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G83" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84">
@@ -2804,19 +2804,19 @@
         <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G84" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85">
@@ -2824,10 +2824,10 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
         <v>24</v>
@@ -2836,10 +2836,10 @@
         <v>70</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G85" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86">
@@ -2847,22 +2847,22 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E86" t="s">
         <v>71</v>
       </c>
       <c r="F86" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G86" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87">
@@ -2870,22 +2870,22 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E87" t="s">
         <v>72</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G87" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88">
@@ -2893,22 +2893,22 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F88" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G88" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E89" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F89" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G89" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90">
@@ -2939,22 +2939,22 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F90" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G90" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91">
@@ -2962,430 +2962,430 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F91" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G91" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F92" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G92" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C93" t="s">
         <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G93" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
         <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E94" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F94" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G94" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C95" t="s">
         <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F95" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G95" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
         <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E96" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F96" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G96" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E97" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F97" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G97" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F98" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G98" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F99" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G99" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E100" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F100" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G100" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G101" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E102" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G102" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G103" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E104" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G104" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F105" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G105" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G106" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E107" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G107" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E108" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F108" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="G108" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E109" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F109" t="s">
         <v>170</v>
@@ -3396,19 +3396,19 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E110" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F110" t="s">
         <v>171</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
@@ -3431,18 +3431,18 @@
         <v>24</v>
       </c>
       <c r="E111" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F111" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G111" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
@@ -3451,21 +3451,21 @@
         <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E112" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F112" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G112" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
@@ -3477,18 +3477,18 @@
         <v>29</v>
       </c>
       <c r="E113" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F113" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G113" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
@@ -3500,56 +3500,56 @@
         <v>30</v>
       </c>
       <c r="E114" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F114" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E115" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F115" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G115" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D116" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E116" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F116" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G116" t="s">
         <v>250</v>
@@ -3557,91 +3557,91 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F117" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="G117" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E118" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F118" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G118" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
         <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E119" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F119" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G119" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E120" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F120" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G120" t="s">
         <v>252</v>
@@ -3649,91 +3649,91 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E121" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F121" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G121" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D122" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E122" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F122" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G122" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D123" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E123" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G123" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D124" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E124" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F124" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G124" t="s">
         <v>252</v>
@@ -3741,160 +3741,160 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D125" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E125" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F125" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G125" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E126" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F126" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G126" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E127" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F127" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G127" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E128" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F128" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="G128" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E129" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F129" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="G129" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E130" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F130" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G130" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E131" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F131" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G131" t="s">
         <v>252</v>
@@ -3902,25 +3902,25 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E132" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F132" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G132" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="133">
@@ -3928,22 +3928,22 @@
         <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D133" t="s">
         <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F133" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G133" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134">
@@ -3951,22 +3951,22 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D134" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E134" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F134" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="G134" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135">
@@ -3974,22 +3974,22 @@
         <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D135" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E135" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F135" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G135" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="136">
@@ -3997,22 +3997,22 @@
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D136" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E136" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F136" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G136" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="137">
@@ -4020,22 +4020,22 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E137" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F137" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="G137" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138">
@@ -4043,22 +4043,22 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D138" t="s">
         <v>24</v>
       </c>
       <c r="E138" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F138" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="139">
@@ -4066,22 +4066,22 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D139" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E139" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F139" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="G139" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="140">
@@ -4089,22 +4089,22 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D140" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E140" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G140" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="141">
@@ -4112,22 +4112,22 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E141" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F141" t="s">
         <v>179</v>
       </c>
       <c r="G141" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142">
@@ -4135,19 +4135,19 @@
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D142" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E142" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F142" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G142" t="s">
         <v>256</v>
@@ -4158,22 +4158,22 @@
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E143" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F143" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="G143" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144">
@@ -4181,22 +4181,22 @@
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D144" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E144" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F144" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145">
@@ -4204,22 +4204,22 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E145" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F145" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="G145" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
     </row>
     <row r="146">
@@ -4227,22 +4227,22 @@
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E146" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F146" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G146" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
     </row>
     <row r="147">
@@ -4250,22 +4250,22 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E147" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F147" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G147" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="148">
@@ -4273,22 +4273,22 @@
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D148" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E148" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F148" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G148" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
     </row>
     <row r="149">
@@ -4296,22 +4296,22 @@
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E149" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F149" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G149" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="150">
@@ -4319,22 +4319,22 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C150" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D150" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E150" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F150" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="G150" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="151">
@@ -4342,22 +4342,22 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C151" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D151" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E151" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F151" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G151" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="152">
@@ -4365,22 +4365,22 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C152" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D152" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E152" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F152" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G152" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
     </row>
     <row r="153">
@@ -4388,22 +4388,22 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D153" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E153" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F153" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G153" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="154">
@@ -4411,22 +4411,22 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C154" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D154" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E154" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F154" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G154" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="155">
@@ -4434,22 +4434,22 @@
         <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E155" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F155" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G155" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="156">
@@ -4457,22 +4457,22 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C156" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E156" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F156" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G156" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157">
@@ -4480,22 +4480,22 @@
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D157" t="s">
         <v>27</v>
       </c>
       <c r="E157" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F157" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G157" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="158">
@@ -4503,22 +4503,22 @@
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s">
         <v>28</v>
       </c>
       <c r="E158" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F158" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G158" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="159">
@@ -4526,22 +4526,22 @@
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C159" t="s">
         <v>19</v>
       </c>
       <c r="D159" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E159" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F159" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G159" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="160">
@@ -4549,22 +4549,22 @@
         <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C160" t="s">
         <v>19</v>
       </c>
       <c r="D160" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E160" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F160" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G160" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="161">
@@ -4572,22 +4572,22 @@
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C161" t="s">
         <v>19</v>
       </c>
       <c r="D161" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E161" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F161" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G161" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
     </row>
     <row r="162">
@@ -4595,22 +4595,22 @@
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D162" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E162" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F162" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G162" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163">
@@ -4618,22 +4618,22 @@
         <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E163" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F163" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G163" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="164">
@@ -4641,22 +4641,22 @@
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C164" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D164" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E164" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F164" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G164" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165">
@@ -4664,22 +4664,22 @@
         <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C165" t="s">
         <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E165" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F165" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="G165" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="166">
@@ -4687,22 +4687,22 @@
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C166" t="s">
         <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E166" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F166" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G166" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167">
@@ -4710,22 +4710,22 @@
         <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C167" t="s">
         <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E167" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F167" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G167" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="168">
@@ -4733,22 +4733,22 @@
         <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C168" t="s">
         <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E168" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F168" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G168" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169">
@@ -4756,22 +4756,22 @@
         <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C169" t="s">
         <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E169" t="s">
         <v>95</v>
       </c>
       <c r="F169" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G169" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="170">
@@ -4779,22 +4779,22 @@
         <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D170" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E170" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F170" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G170" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="171">
@@ -4802,22 +4802,22 @@
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D171" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E171" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F171" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="G171" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="172">
@@ -4825,22 +4825,22 @@
         <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C172" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D172" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E172" t="s">
         <v>93</v>
       </c>
       <c r="F172" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G172" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="173">
@@ -4848,22 +4848,22 @@
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C173" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E173" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F173" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G173" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174">
@@ -4871,22 +4871,22 @@
         <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C174" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D174" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E174" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F174" t="s">
         <v>189</v>
       </c>
       <c r="G174" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="175">
@@ -4894,22 +4894,22 @@
         <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C175" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D175" t="s">
         <v>26</v>
       </c>
       <c r="E175" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F175" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G175" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="176">
@@ -4917,22 +4917,22 @@
         <v>10</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C176" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D176" t="s">
         <v>29</v>
       </c>
       <c r="E176" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F176" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G176" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="177">
@@ -4940,10 +4940,10 @@
         <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C177" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D177" t="s">
         <v>30</v>
@@ -4952,10 +4952,10 @@
         <v>95</v>
       </c>
       <c r="F177" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G177" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
     </row>
     <row r="178">
@@ -4963,22 +4963,22 @@
         <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D178" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E178" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F178" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G178" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="179">
@@ -4986,22 +4986,22 @@
         <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C179" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D179" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E179" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F179" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G179" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="180">
@@ -5009,22 +5009,22 @@
         <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D180" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E180" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F180" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G180" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
     </row>
     <row r="181">
@@ -5032,10 +5032,10 @@
         <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D181" t="s">
         <v>24</v>
@@ -5044,10 +5044,10 @@
         <v>98</v>
       </c>
       <c r="F181" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G181" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="182">
@@ -5055,16 +5055,16 @@
         <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D182" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E182" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F182" t="s">
         <v>192</v>
@@ -5078,10 +5078,10 @@
         <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D183" t="s">
         <v>24</v>
@@ -5090,10 +5090,10 @@
         <v>98</v>
       </c>
       <c r="F183" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G183" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="184">
@@ -5101,16 +5101,16 @@
         <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D184" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E184" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F184" t="s">
         <v>192</v>
@@ -5124,13 +5124,13 @@
         <v>11</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C185" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D185" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E185" t="s">
         <v>99</v>
@@ -5139,7 +5139,7 @@
         <v>193</v>
       </c>
       <c r="G185" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="186">
@@ -5147,13 +5147,13 @@
         <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D186" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E186" t="s">
         <v>100</v>
@@ -5162,7 +5162,7 @@
         <v>194</v>
       </c>
       <c r="G186" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="187">
@@ -5170,10 +5170,10 @@
         <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D187" t="s">
         <v>24</v>
@@ -5182,10 +5182,10 @@
         <v>98</v>
       </c>
       <c r="F187" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G187" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188">
@@ -5193,16 +5193,16 @@
         <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E188" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F188" t="s">
         <v>192</v>
@@ -5216,10 +5216,10 @@
         <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D189" t="s">
         <v>24</v>
@@ -5228,10 +5228,10 @@
         <v>101</v>
       </c>
       <c r="F189" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G189" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190">
@@ -5239,10 +5239,10 @@
         <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D190" t="s">
         <v>24</v>
@@ -5251,10 +5251,10 @@
         <v>101</v>
       </c>
       <c r="F190" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G190" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="191">
@@ -5262,13 +5262,13 @@
         <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C191" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D191" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E191" t="s">
         <v>102</v>
@@ -5277,7 +5277,7 @@
         <v>195</v>
       </c>
       <c r="G191" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192">
@@ -5285,10 +5285,10 @@
         <v>11</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
         <v>24</v>
@@ -5297,10 +5297,10 @@
         <v>101</v>
       </c>
       <c r="F192" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G192" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193">
@@ -5308,13 +5308,13 @@
         <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D193" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E193" t="s">
         <v>103</v>
@@ -5331,19 +5331,19 @@
         <v>11</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E194" t="s">
         <v>104</v>
       </c>
       <c r="F194" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G194" t="s">
         <v>267</v>
@@ -5354,13 +5354,13 @@
         <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C195" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D195" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E195" t="s">
         <v>103</v>
@@ -5369,7 +5369,7 @@
         <v>197</v>
       </c>
       <c r="G195" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="196">
@@ -5377,10 +5377,10 @@
         <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C196" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D196" t="s">
         <v>24</v>
@@ -5389,10 +5389,10 @@
         <v>105</v>
       </c>
       <c r="F196" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G196" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197">
@@ -5400,13 +5400,13 @@
         <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C197" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D197" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E197" t="s">
         <v>106</v>
@@ -5415,7 +5415,7 @@
         <v>198</v>
       </c>
       <c r="G197" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="198">
@@ -5423,22 +5423,22 @@
         <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D198" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E198" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F198" t="s">
         <v>199</v>
       </c>
       <c r="G198" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199">
@@ -5446,10 +5446,10 @@
         <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D199" t="s">
         <v>24</v>
@@ -5458,10 +5458,10 @@
         <v>105</v>
       </c>
       <c r="F199" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G199" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200">
@@ -5469,13 +5469,13 @@
         <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C200" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D200" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E200" t="s">
         <v>103</v>
@@ -5492,19 +5492,19 @@
         <v>11</v>
       </c>
       <c r="B201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C201" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D201" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E201" t="s">
         <v>104</v>
       </c>
       <c r="F201" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G201" t="s">
         <v>267</v>
@@ -5515,13 +5515,13 @@
         <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C202" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D202" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E202" t="s">
         <v>103</v>
@@ -5530,7 +5530,7 @@
         <v>197</v>
       </c>
       <c r="G202" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="203">
@@ -5538,13 +5538,13 @@
         <v>11</v>
       </c>
       <c r="B203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D203" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E203" t="s">
         <v>106</v>
@@ -5553,7 +5553,7 @@
         <v>198</v>
       </c>
       <c r="G203" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204">
@@ -5561,22 +5561,22 @@
         <v>11</v>
       </c>
       <c r="B204" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C204" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D204" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E204" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F204" t="s">
         <v>199</v>
       </c>
       <c r="G204" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205">
@@ -5584,10 +5584,10 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C205" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D205" t="s">
         <v>24</v>
@@ -5596,10 +5596,10 @@
         <v>105</v>
       </c>
       <c r="F205" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G205" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206">
@@ -5607,13 +5607,13 @@
         <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C206" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D206" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E206" t="s">
         <v>106</v>
@@ -5622,7 +5622,7 @@
         <v>198</v>
       </c>
       <c r="G206" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207">
@@ -5630,22 +5630,22 @@
         <v>11</v>
       </c>
       <c r="B207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C207" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D207" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E207" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F207" t="s">
         <v>199</v>
       </c>
       <c r="G207" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208">
@@ -5653,7 +5653,7 @@
         <v>11</v>
       </c>
       <c r="B208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C208" t="s">
         <v>23</v>
@@ -5665,10 +5665,10 @@
         <v>105</v>
       </c>
       <c r="F208" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G208" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="209">
@@ -5676,13 +5676,13 @@
         <v>11</v>
       </c>
       <c r="B209" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C209" t="s">
         <v>23</v>
       </c>
       <c r="D209" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E209" t="s">
         <v>103</v>
@@ -5699,19 +5699,19 @@
         <v>11</v>
       </c>
       <c r="B210" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C210" t="s">
         <v>23</v>
       </c>
       <c r="D210" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E210" t="s">
         <v>104</v>
       </c>
       <c r="F210" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G210" t="s">
         <v>267</v>
@@ -5722,13 +5722,13 @@
         <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C211" t="s">
         <v>23</v>
       </c>
       <c r="D211" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E211" t="s">
         <v>103</v>
@@ -5737,7 +5737,7 @@
         <v>197</v>
       </c>
       <c r="G211" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="212">
@@ -5745,13 +5745,13 @@
         <v>11</v>
       </c>
       <c r="B212" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C212" t="s">
         <v>23</v>
       </c>
       <c r="D212" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E212" t="s">
         <v>106</v>
@@ -5760,7 +5760,7 @@
         <v>198</v>
       </c>
       <c r="G212" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="213">
@@ -5768,22 +5768,22 @@
         <v>11</v>
       </c>
       <c r="B213" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C213" t="s">
         <v>23</v>
       </c>
       <c r="D213" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E213" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F213" t="s">
         <v>199</v>
       </c>
       <c r="G213" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="214">
@@ -5791,22 +5791,22 @@
         <v>11</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C214" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D214" t="s">
         <v>24</v>
       </c>
       <c r="E214" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F214" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G214" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215">
@@ -5814,22 +5814,22 @@
         <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D215" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E215" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F215" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G215" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216">
@@ -5837,22 +5837,22 @@
         <v>11</v>
       </c>
       <c r="B216" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D216" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E216" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F216" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G216" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217">
@@ -5860,22 +5860,22 @@
         <v>11</v>
       </c>
       <c r="B217" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C217" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D217" t="s">
         <v>24</v>
       </c>
       <c r="E217" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F217" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G217" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="218">
@@ -5883,22 +5883,22 @@
         <v>11</v>
       </c>
       <c r="B218" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D218" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E218" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F218" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G218" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="219">
@@ -5906,22 +5906,22 @@
         <v>11</v>
       </c>
       <c r="B219" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D219" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E219" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F219" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G219" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="220">
@@ -5929,22 +5929,22 @@
         <v>11</v>
       </c>
       <c r="B220" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C220" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D220" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E220" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F220" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G220" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="221">
@@ -5952,22 +5952,22 @@
         <v>11</v>
       </c>
       <c r="B221" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C221" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D221" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E221" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F221" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G221" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="222">
@@ -5975,22 +5975,22 @@
         <v>11</v>
       </c>
       <c r="B222" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C222" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D222" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E222" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F222" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G222" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="223">
@@ -5998,22 +5998,22 @@
         <v>11</v>
       </c>
       <c r="B223" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C223" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D223" t="s">
         <v>24</v>
       </c>
       <c r="E223" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F223" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G223" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="224">
@@ -6021,22 +6021,22 @@
         <v>11</v>
       </c>
       <c r="B224" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C224" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D224" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E224" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F224" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G224" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="225">
@@ -6044,22 +6044,22 @@
         <v>11</v>
       </c>
       <c r="B225" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C225" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D225" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E225" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F225" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G225" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="226">
@@ -6067,7 +6067,7 @@
         <v>11</v>
       </c>
       <c r="B226" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C226" t="s">
         <v>23</v>
@@ -6076,13 +6076,13 @@
         <v>24</v>
       </c>
       <c r="E226" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F226" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G226" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="227">
@@ -6090,22 +6090,22 @@
         <v>11</v>
       </c>
       <c r="B227" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C227" t="s">
         <v>23</v>
       </c>
       <c r="D227" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E227" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F227" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G227" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="228">
@@ -6113,22 +6113,22 @@
         <v>11</v>
       </c>
       <c r="B228" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C228" t="s">
         <v>23</v>
       </c>
       <c r="D228" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E228" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F228" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G228" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="229">
@@ -6136,22 +6136,22 @@
         <v>11</v>
       </c>
       <c r="B229" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C229" t="s">
         <v>23</v>
       </c>
       <c r="D229" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E229" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F229" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G229" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="230">
@@ -6159,22 +6159,22 @@
         <v>11</v>
       </c>
       <c r="B230" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C230" t="s">
         <v>23</v>
       </c>
       <c r="D230" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E230" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F230" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G230" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="231">
@@ -6182,22 +6182,22 @@
         <v>11</v>
       </c>
       <c r="B231" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C231" t="s">
         <v>23</v>
       </c>
       <c r="D231" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E231" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F231" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G231" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="232">
@@ -6205,10 +6205,10 @@
         <v>12</v>
       </c>
       <c r="B232" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C232" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D232" t="s">
         <v>24</v>
@@ -6228,13 +6228,13 @@
         <v>12</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C233" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D233" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E233" t="s">
         <v>108</v>
@@ -6243,7 +6243,7 @@
         <v>201</v>
       </c>
       <c r="G233" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="234">
@@ -6251,13 +6251,13 @@
         <v>12</v>
       </c>
       <c r="B234" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C234" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D234" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E234" t="s">
         <v>109</v>
@@ -6274,22 +6274,22 @@
         <v>12</v>
       </c>
       <c r="B235" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C235" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D235" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E235" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F235" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G235" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="236">
@@ -6297,10 +6297,10 @@
         <v>12</v>
       </c>
       <c r="B236" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C236" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D236" t="s">
         <v>24</v>
@@ -6320,13 +6320,13 @@
         <v>12</v>
       </c>
       <c r="B237" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C237" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D237" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E237" t="s">
         <v>108</v>
@@ -6335,7 +6335,7 @@
         <v>201</v>
       </c>
       <c r="G237" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="238">
@@ -6343,13 +6343,13 @@
         <v>12</v>
       </c>
       <c r="B238" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C238" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E238" t="s">
         <v>110</v>
@@ -6358,7 +6358,7 @@
         <v>203</v>
       </c>
       <c r="G238" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="239">
@@ -6366,13 +6366,13 @@
         <v>12</v>
       </c>
       <c r="B239" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C239" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D239" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E239" t="s">
         <v>111</v>
@@ -6381,7 +6381,7 @@
         <v>203</v>
       </c>
       <c r="G239" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="240">
@@ -6389,13 +6389,13 @@
         <v>12</v>
       </c>
       <c r="B240" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D240" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E240" t="s">
         <v>112</v>
@@ -6404,7 +6404,7 @@
         <v>202</v>
       </c>
       <c r="G240" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="241">
@@ -6412,13 +6412,13 @@
         <v>12</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D241" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E241" t="s">
         <v>109</v>
@@ -6435,22 +6435,22 @@
         <v>12</v>
       </c>
       <c r="B242" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D242" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E242" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F242" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G242" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="243">
@@ -6458,10 +6458,10 @@
         <v>12</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C243" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D243" t="s">
         <v>24</v>
@@ -6481,13 +6481,13 @@
         <v>12</v>
       </c>
       <c r="B244" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C244" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D244" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E244" t="s">
         <v>108</v>
@@ -6496,7 +6496,7 @@
         <v>201</v>
       </c>
       <c r="G244" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="245">
@@ -6504,13 +6504,13 @@
         <v>12</v>
       </c>
       <c r="B245" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C245" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D245" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E245" t="s">
         <v>109</v>
@@ -6527,22 +6527,22 @@
         <v>12</v>
       </c>
       <c r="B246" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C246" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D246" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E246" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F246" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G246" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="247">
@@ -6550,7 +6550,7 @@
         <v>12</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C247" t="s">
         <v>23</v>
@@ -6573,13 +6573,13 @@
         <v>12</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C248" t="s">
         <v>23</v>
       </c>
       <c r="D248" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E248" t="s">
         <v>108</v>
@@ -6588,7 +6588,7 @@
         <v>201</v>
       </c>
       <c r="G248" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="249">
@@ -6596,13 +6596,13 @@
         <v>12</v>
       </c>
       <c r="B249" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C249" t="s">
         <v>23</v>
       </c>
       <c r="D249" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E249" t="s">
         <v>110</v>
@@ -6611,7 +6611,7 @@
         <v>203</v>
       </c>
       <c r="G249" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="250">
@@ -6619,13 +6619,13 @@
         <v>12</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C250" t="s">
         <v>23</v>
       </c>
       <c r="D250" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E250" t="s">
         <v>111</v>
@@ -6634,7 +6634,7 @@
         <v>203</v>
       </c>
       <c r="G250" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="251">
@@ -6642,13 +6642,13 @@
         <v>12</v>
       </c>
       <c r="B251" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C251" t="s">
         <v>23</v>
       </c>
       <c r="D251" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E251" t="s">
         <v>112</v>
@@ -6657,7 +6657,7 @@
         <v>202</v>
       </c>
       <c r="G251" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="252">
@@ -6665,13 +6665,13 @@
         <v>12</v>
       </c>
       <c r="B252" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C252" t="s">
         <v>23</v>
       </c>
       <c r="D252" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E252" t="s">
         <v>109</v>
@@ -6688,22 +6688,22 @@
         <v>12</v>
       </c>
       <c r="B253" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C253" t="s">
         <v>23</v>
       </c>
       <c r="D253" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E253" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F253" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G253" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="254">
@@ -6711,10 +6711,10 @@
         <v>12</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C254" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D254" t="s">
         <v>24</v>
@@ -6734,22 +6734,22 @@
         <v>12</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C255" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D255" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E255" t="s">
         <v>114</v>
       </c>
       <c r="F255" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G255" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="256">
@@ -6757,13 +6757,13 @@
         <v>12</v>
       </c>
       <c r="B256" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C256" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D256" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E256" t="s">
         <v>115</v>
@@ -6780,10 +6780,10 @@
         <v>12</v>
       </c>
       <c r="B257" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C257" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D257" t="s">
         <v>24</v>
@@ -6803,16 +6803,16 @@
         <v>12</v>
       </c>
       <c r="B258" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D258" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E258" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F258" t="s">
         <v>204</v>
@@ -6826,13 +6826,13 @@
         <v>12</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C259" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D259" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E259" t="s">
         <v>116</v>
@@ -6841,7 +6841,7 @@
         <v>203</v>
       </c>
       <c r="G259" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="260">
@@ -6849,22 +6849,22 @@
         <v>12</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C260" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D260" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E260" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F260" t="s">
         <v>202</v>
       </c>
       <c r="G260" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="261">
@@ -6872,22 +6872,22 @@
         <v>12</v>
       </c>
       <c r="B261" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C261" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D261" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E261" t="s">
         <v>114</v>
       </c>
       <c r="F261" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G261" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="262">
@@ -6895,13 +6895,13 @@
         <v>12</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C262" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D262" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E262" t="s">
         <v>115</v>
@@ -6918,10 +6918,10 @@
         <v>12</v>
       </c>
       <c r="B263" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C263" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D263" t="s">
         <v>24</v>
@@ -6941,22 +6941,22 @@
         <v>12</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C264" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D264" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E264" t="s">
         <v>114</v>
       </c>
       <c r="F264" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G264" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="265">
@@ -6964,13 +6964,13 @@
         <v>12</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C265" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D265" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E265" t="s">
         <v>115</v>
@@ -6987,7 +6987,7 @@
         <v>12</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C266" t="s">
         <v>23</v>
@@ -7010,16 +7010,16 @@
         <v>12</v>
       </c>
       <c r="B267" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C267" t="s">
         <v>23</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E267" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F267" t="s">
         <v>204</v>
@@ -7033,13 +7033,13 @@
         <v>12</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C268" t="s">
         <v>23</v>
       </c>
       <c r="D268" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E268" t="s">
         <v>116</v>
@@ -7048,7 +7048,7 @@
         <v>203</v>
       </c>
       <c r="G268" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="269">
@@ -7056,22 +7056,22 @@
         <v>12</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C269" t="s">
         <v>23</v>
       </c>
       <c r="D269" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E269" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F269" t="s">
         <v>202</v>
       </c>
       <c r="G269" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="270">
@@ -7079,22 +7079,22 @@
         <v>12</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C270" t="s">
         <v>23</v>
       </c>
       <c r="D270" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E270" t="s">
         <v>114</v>
       </c>
       <c r="F270" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G270" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="271">
@@ -7102,13 +7102,13 @@
         <v>12</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C271" t="s">
         <v>23</v>
       </c>
       <c r="D271" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E271" t="s">
         <v>115</v>
@@ -7125,16 +7125,16 @@
         <v>12</v>
       </c>
       <c r="B272" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C272" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D272" t="s">
         <v>24</v>
       </c>
       <c r="E272" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F272" t="s">
         <v>200</v>
@@ -7148,13 +7148,13 @@
         <v>12</v>
       </c>
       <c r="B273" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C273" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D273" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E273" t="s">
         <v>117</v>
@@ -7171,13 +7171,13 @@
         <v>12</v>
       </c>
       <c r="B274" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C274" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D274" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E274" t="s">
         <v>118</v>
@@ -7186,7 +7186,7 @@
         <v>205</v>
       </c>
       <c r="G274" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="275">
@@ -7194,16 +7194,16 @@
         <v>12</v>
       </c>
       <c r="B275" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C275" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D275" t="s">
         <v>24</v>
       </c>
       <c r="E275" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F275" t="s">
         <v>200</v>
@@ -7217,13 +7217,13 @@
         <v>12</v>
       </c>
       <c r="B276" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C276" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D276" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E276" t="s">
         <v>117</v>
@@ -7232,7 +7232,7 @@
         <v>203</v>
       </c>
       <c r="G276" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="277">
@@ -7240,13 +7240,13 @@
         <v>12</v>
       </c>
       <c r="B277" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C277" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D277" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E277" t="s">
         <v>119</v>
@@ -7255,7 +7255,7 @@
         <v>203</v>
       </c>
       <c r="G277" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="278">
@@ -7263,13 +7263,13 @@
         <v>12</v>
       </c>
       <c r="B278" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C278" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D278" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E278" t="s">
         <v>120</v>
@@ -7278,7 +7278,7 @@
         <v>202</v>
       </c>
       <c r="G278" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="279">
@@ -7286,13 +7286,13 @@
         <v>12</v>
       </c>
       <c r="B279" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C279" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D279" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E279" t="s">
         <v>117</v>
@@ -7309,13 +7309,13 @@
         <v>12</v>
       </c>
       <c r="B280" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C280" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D280" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E280" t="s">
         <v>118</v>
@@ -7324,7 +7324,7 @@
         <v>205</v>
       </c>
       <c r="G280" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="281">
@@ -7332,16 +7332,16 @@
         <v>12</v>
       </c>
       <c r="B281" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C281" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D281" t="s">
         <v>24</v>
       </c>
       <c r="E281" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F281" t="s">
         <v>200</v>
@@ -7355,13 +7355,13 @@
         <v>12</v>
       </c>
       <c r="B282" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C282" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D282" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E282" t="s">
         <v>117</v>
@@ -7378,13 +7378,13 @@
         <v>12</v>
       </c>
       <c r="B283" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C283" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E283" t="s">
         <v>118</v>
@@ -7393,7 +7393,7 @@
         <v>205</v>
       </c>
       <c r="G283" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="284">
@@ -7401,7 +7401,7 @@
         <v>12</v>
       </c>
       <c r="B284" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C284" t="s">
         <v>23</v>
@@ -7410,7 +7410,7 @@
         <v>24</v>
       </c>
       <c r="E284" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F284" t="s">
         <v>200</v>
@@ -7424,13 +7424,13 @@
         <v>12</v>
       </c>
       <c r="B285" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C285" t="s">
         <v>23</v>
       </c>
       <c r="D285" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E285" t="s">
         <v>117</v>
@@ -7439,7 +7439,7 @@
         <v>203</v>
       </c>
       <c r="G285" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="286">
@@ -7447,13 +7447,13 @@
         <v>12</v>
       </c>
       <c r="B286" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C286" t="s">
         <v>23</v>
       </c>
       <c r="D286" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E286" t="s">
         <v>119</v>
@@ -7462,7 +7462,7 @@
         <v>203</v>
       </c>
       <c r="G286" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="287">
@@ -7470,13 +7470,13 @@
         <v>12</v>
       </c>
       <c r="B287" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C287" t="s">
         <v>23</v>
       </c>
       <c r="D287" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E287" t="s">
         <v>120</v>
@@ -7485,7 +7485,7 @@
         <v>202</v>
       </c>
       <c r="G287" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="288">
@@ -7493,13 +7493,13 @@
         <v>12</v>
       </c>
       <c r="B288" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C288" t="s">
         <v>23</v>
       </c>
       <c r="D288" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E288" t="s">
         <v>117</v>
@@ -7516,13 +7516,13 @@
         <v>12</v>
       </c>
       <c r="B289" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C289" t="s">
         <v>23</v>
       </c>
       <c r="D289" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E289" t="s">
         <v>118</v>
@@ -7531,7 +7531,7 @@
         <v>205</v>
       </c>
       <c r="G289" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="290">
@@ -7539,22 +7539,22 @@
         <v>13</v>
       </c>
       <c r="B290" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C290" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D290" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E290" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F290" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="G290" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="291">
@@ -7562,13 +7562,13 @@
         <v>13</v>
       </c>
       <c r="B291" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C291" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D291" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E291" t="s">
         <v>121</v>
@@ -7585,22 +7585,22 @@
         <v>13</v>
       </c>
       <c r="B292" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C292" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D292" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E292" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F292" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="G292" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="293">
@@ -7608,13 +7608,13 @@
         <v>13</v>
       </c>
       <c r="B293" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C293" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D293" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E293" t="s">
         <v>121</v>
@@ -7631,22 +7631,22 @@
         <v>13</v>
       </c>
       <c r="B294" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C294" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D294" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E294" t="s">
         <v>122</v>
       </c>
       <c r="F294" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="G294" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="295">
@@ -7654,16 +7654,16 @@
         <v>13</v>
       </c>
       <c r="B295" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D295" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E295" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F295" t="s">
         <v>207</v>
@@ -7677,19 +7677,19 @@
         <v>13</v>
       </c>
       <c r="B296" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C296" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D296" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E296" t="s">
         <v>123</v>
       </c>
       <c r="F296" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="G296" t="s">
         <v>273</v>
@@ -7700,16 +7700,16 @@
         <v>13</v>
       </c>
       <c r="B297" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C297" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D297" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E297" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F297" t="s">
         <v>208</v>
@@ -7723,16 +7723,16 @@
         <v>13</v>
       </c>
       <c r="B298" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C298" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D298" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E298" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F298" t="s">
         <v>209</v>
@@ -7746,22 +7746,22 @@
         <v>13</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C299" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D299" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E299" t="s">
         <v>122</v>
       </c>
       <c r="F299" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="G299" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="300">
@@ -7769,16 +7769,16 @@
         <v>13</v>
       </c>
       <c r="B300" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C300" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D300" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E300" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F300" t="s">
         <v>207</v>
